--- a/чек лист формы входа.xlsx
+++ b/чек лист формы входа.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>№</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Заполнить поле "Email or phone" фразой на русском языке и нажать [Sign IN]</t>
   </si>
   <si>
-    <t>Заполнить поле "Email or phone" корректным почтовым ящиком и нажать [Sign IN]</t>
-  </si>
-  <si>
     <t>Заполнить поле "Email or phone" фразой из спец символа # кириллическими и латинскими символами</t>
   </si>
   <si>
@@ -141,6 +138,12 @@
   </si>
   <si>
     <t>Поле окрашивается красным и появляется сообщение "Login is too short for now."</t>
+  </si>
+  <si>
+    <t>Заполнить поле "Email or phone" почтовым ящиком kkeren@mail.ru и нажать [Sign IN]</t>
+  </si>
+  <si>
+    <t>Заполнить поле "Email or phone" номером +77778788454 и нажать [Sign IN]</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -225,7 +228,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -506,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A3" sqref="A3:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -589,18 +591,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -611,164 +613,175 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
